--- a/data/trans_orig/Q4505_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q4505_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>111919</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93879</v>
+        <v>93327</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132148</v>
+        <v>132009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2362285866335291</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1981505331478897</v>
+        <v>0.1969854090226142</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2789259237137209</v>
+        <v>0.2786313427061876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -764,19 +764,19 @@
         <v>61704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48262</v>
+        <v>48425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77614</v>
+        <v>76749</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2020121842038016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1580050043111235</v>
+        <v>0.1585365689193148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2540973429194694</v>
+        <v>0.2512645522780836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -785,19 +785,19 @@
         <v>173624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>151396</v>
+        <v>150971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>197252</v>
+        <v>198943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2228160670473047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.19429036384341</v>
+        <v>0.1937442602853348</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2531384301533017</v>
+        <v>0.2553088985479161</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>127968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109226</v>
+        <v>109069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149964</v>
+        <v>147554</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2701020073384866</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2305435945958802</v>
+        <v>0.2302131928670733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3165287180669079</v>
+        <v>0.3114422596453499</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -835,19 +835,19 @@
         <v>79431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64849</v>
+        <v>66394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95365</v>
+        <v>96290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2600466410929976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.21230779040343</v>
+        <v>0.2173637303507391</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.312214029907647</v>
+        <v>0.3152417606995619</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>204</v>
@@ -856,19 +856,19 @@
         <v>207399</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183122</v>
+        <v>184129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>236377</v>
+        <v>230518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2661603949205456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2350045219756004</v>
+        <v>0.2362978318895215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3033479348826565</v>
+        <v>0.295829559078488</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>187341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165634</v>
+        <v>165895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>210030</v>
+        <v>210079</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3954217326569394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3496047320663575</v>
+        <v>0.3501546955043981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4433110753088284</v>
+        <v>0.443414356274589</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -906,19 +906,19 @@
         <v>133415</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>115788</v>
+        <v>116020</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>150141</v>
+        <v>149688</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4367829465899301</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3790756116506734</v>
+        <v>0.37983295859086</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4915429232102696</v>
+        <v>0.4900591961830627</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>310</v>
@@ -927,19 +927,19 @@
         <v>320757</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>295326</v>
+        <v>292361</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>349502</v>
+        <v>348066</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4116349535858667</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3789987408685446</v>
+        <v>0.3751935823955005</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4485248844422592</v>
+        <v>0.4466813721794259</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>20497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12587</v>
+        <v>13448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32816</v>
+        <v>33047</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04326305305058046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02656799237405164</v>
+        <v>0.02838529831020368</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06926435980123409</v>
+        <v>0.06975138845504489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -977,19 +977,19 @@
         <v>16334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9119</v>
+        <v>9842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25915</v>
+        <v>26451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05347406167545748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02985475275690977</v>
+        <v>0.03222199991427498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0848419351210673</v>
+        <v>0.08659701650852765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -998,19 +998,19 @@
         <v>36831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26793</v>
+        <v>26506</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52341</v>
+        <v>50679</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04726567587036825</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03438379927894097</v>
+        <v>0.03401583414201209</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06717003851591639</v>
+        <v>0.06503825019324576</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>26050</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17762</v>
+        <v>17293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38978</v>
+        <v>38842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05498462032046444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03749003387788375</v>
+        <v>0.03650038375273945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08227032384819497</v>
+        <v>0.08198396167438318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1048,19 +1048,19 @@
         <v>14565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8333</v>
+        <v>8203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23815</v>
+        <v>23884</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04768416643781323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02728185583054344</v>
+        <v>0.02685620300386261</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0779680655673919</v>
+        <v>0.07819415369064264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -1069,19 +1069,19 @@
         <v>40616</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28851</v>
+        <v>28390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54760</v>
+        <v>54417</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05212290857591481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03702524507613911</v>
+        <v>0.03643325665957985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07027481982425456</v>
+        <v>0.0698345925668333</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>88118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71388</v>
+        <v>72078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107020</v>
+        <v>106603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2401453753803625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1945516156368055</v>
+        <v>0.1964338736526056</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2916599714724175</v>
+        <v>0.2905229773109412</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1194,19 +1194,19 @@
         <v>73426</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59653</v>
+        <v>57746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90327</v>
+        <v>89820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1986799265962545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1614125135460593</v>
+        <v>0.1562536528431612</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2444129199440463</v>
+        <v>0.2430396160722891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1215,19 +1215,19 @@
         <v>161543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140938</v>
+        <v>139335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187799</v>
+        <v>184814</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2193384963473275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1913610349181435</v>
+        <v>0.1891840838834908</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2549869927208463</v>
+        <v>0.2509349198703231</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>86969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71582</v>
+        <v>72402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>104091</v>
+        <v>105480</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2370140973170685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1950814633793606</v>
+        <v>0.1973152841965337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2836784093336771</v>
+        <v>0.2874634906807563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -1265,19 +1265,19 @@
         <v>86951</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71415</v>
+        <v>72017</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103219</v>
+        <v>104206</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2352767513059949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1932378165317614</v>
+        <v>0.1948686567704944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2792971088125666</v>
+        <v>0.2819666465262154</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>170</v>
@@ -1286,19 +1286,19 @@
         <v>173920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>150207</v>
+        <v>151788</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>194967</v>
+        <v>197890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.236142317332746</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2039459351736174</v>
+        <v>0.2060929900059816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2647192371005851</v>
+        <v>0.2686887872338045</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>154500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134606</v>
+        <v>134732</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>174808</v>
+        <v>174175</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4210564293421344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3668387659711417</v>
+        <v>0.3671823493151361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4764015153872977</v>
+        <v>0.474677392049478</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>147</v>
@@ -1336,19 +1336,19 @@
         <v>150840</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132181</v>
+        <v>132103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>169726</v>
+        <v>169253</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4081518668397342</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3576630939340404</v>
+        <v>0.3574513777588088</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4592560362857366</v>
+        <v>0.4579741993761552</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>295</v>
@@ -1357,19 +1357,19 @@
         <v>305340</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>279325</v>
+        <v>279209</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>334433</v>
+        <v>334218</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4145810702459466</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.379258776928189</v>
+        <v>0.3791007388284882</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.454082000286063</v>
+        <v>0.4537909213974692</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>12905</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6397</v>
+        <v>6553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22320</v>
+        <v>23345</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03516856075464785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0174337175646505</v>
+        <v>0.01785751274457168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06082889770250453</v>
+        <v>0.06362289056548272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1407,19 +1407,19 @@
         <v>31057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22019</v>
+        <v>21954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42937</v>
+        <v>42873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08403590057541292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05958011966703802</v>
+        <v>0.05940455496261494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1161812178239474</v>
+        <v>0.1160093623197634</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -1428,19 +1428,19 @@
         <v>43962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32590</v>
+        <v>32869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59468</v>
+        <v>58329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05968962246100425</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04424982473191637</v>
+        <v>0.04462868621719275</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0807432420234717</v>
+        <v>0.07919676617729753</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>24444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16432</v>
+        <v>15916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35160</v>
+        <v>34696</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06661553720578672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04478113516492817</v>
+        <v>0.04337661529473723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09582109247318943</v>
+        <v>0.09455554370423978</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1478,19 +1478,19 @@
         <v>27295</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18040</v>
+        <v>18633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39104</v>
+        <v>38952</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07385555468260345</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04881407764051012</v>
+        <v>0.05041762352215229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1058100666636047</v>
+        <v>0.1053983088148251</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -1499,19 +1499,19 @@
         <v>51738</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>39649</v>
+        <v>38462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66328</v>
+        <v>66279</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07024849361297554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05383425724978287</v>
+        <v>0.05222209489227508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09005828268578089</v>
+        <v>0.08999182717545555</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>120419</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101429</v>
+        <v>103330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141714</v>
+        <v>142676</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2224178561475489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1873440428030146</v>
+        <v>0.1908542199634032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2617518503470515</v>
+        <v>0.2635277026433299</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1624,19 +1624,19 @@
         <v>47584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36362</v>
+        <v>36565</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60110</v>
+        <v>60430</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2836071562719626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2167236656837014</v>
+        <v>0.2179286756794523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3582610245125562</v>
+        <v>0.3601705936694302</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>165</v>
@@ -1645,19 +1645,19 @@
         <v>168003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146627</v>
+        <v>145302</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>192690</v>
+        <v>189561</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2368942057243711</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.206753733339819</v>
+        <v>0.2048849334898941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2717044870190317</v>
+        <v>0.2672924248601112</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>155425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134413</v>
+        <v>134278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177952</v>
+        <v>175867</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2870753105027348</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2482665477412316</v>
+        <v>0.248017260147754</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3286834180756663</v>
+        <v>0.3248336918386808</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -1695,19 +1695,19 @@
         <v>35173</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25876</v>
+        <v>25136</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47098</v>
+        <v>47859</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2096371328068058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1542225469332078</v>
+        <v>0.1498156695878183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2807081065016989</v>
+        <v>0.2852454506503672</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>189</v>
@@ -1716,19 +1716,19 @@
         <v>190598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>168131</v>
+        <v>168134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>216061</v>
+        <v>215096</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2687547523554931</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2370752253016461</v>
+        <v>0.2370790686964238</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3046588438685297</v>
+        <v>0.3032991654865705</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>178271</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>155312</v>
+        <v>157763</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>202901</v>
+        <v>199989</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3292733211015943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2868671038514418</v>
+        <v>0.29139395055424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3747663095275496</v>
+        <v>0.3693882115264454</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -1766,19 +1766,19 @@
         <v>68942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57449</v>
+        <v>55276</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81335</v>
+        <v>80927</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4109027000809374</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3424029906819639</v>
+        <v>0.3294502616810564</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.484765683559762</v>
+        <v>0.4823337605113764</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>244</v>
@@ -1787,19 +1787,19 @@
         <v>247213</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>220863</v>
+        <v>221689</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>272404</v>
+        <v>273387</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3485854463169698</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3114310833983532</v>
+        <v>0.3125955169758058</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3841070164048065</v>
+        <v>0.3854928540358259</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>37134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25921</v>
+        <v>25579</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51007</v>
+        <v>51202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06858754044894715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04787725330938548</v>
+        <v>0.04724583665524672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09421186208344151</v>
+        <v>0.09457134919317467</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1837,19 +1837,19 @@
         <v>7155</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3056</v>
+        <v>2907</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15117</v>
+        <v>15112</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04264537556887604</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01821429886883678</v>
+        <v>0.01732711502841251</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09009680434677425</v>
+        <v>0.09006680066306232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1858,19 +1858,19 @@
         <v>44289</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32431</v>
+        <v>31229</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60879</v>
+        <v>59605</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06245006466772587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04573012548269194</v>
+        <v>0.04403470282732307</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08584319019901972</v>
+        <v>0.08404624858339647</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>50159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37732</v>
+        <v>37968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65184</v>
+        <v>66623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09264597179917491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06969303669059482</v>
+        <v>0.0701285948046183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1203973286764369</v>
+        <v>0.1230553683099564</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1908,19 +1908,19 @@
         <v>8927</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4286</v>
+        <v>3982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15480</v>
+        <v>15256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05320763527141811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02554312933680179</v>
+        <v>0.02373370932672008</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09226529755100581</v>
+        <v>0.0909252523747117</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -1929,19 +1929,19 @@
         <v>59086</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46005</v>
+        <v>44558</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76146</v>
+        <v>74082</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0833155309354401</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06486948161936562</v>
+        <v>0.0628295542234542</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.107370844933003</v>
+        <v>0.1044595969099034</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>282212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>253130</v>
+        <v>253206</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>313694</v>
+        <v>311930</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2282491659074685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2047282683486285</v>
+        <v>0.2047896209319964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2537111834381938</v>
+        <v>0.2522849785783178</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>173</v>
@@ -2054,19 +2054,19 @@
         <v>180094</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155197</v>
+        <v>158595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>203946</v>
+        <v>205018</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2524783758350868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2175746505267726</v>
+        <v>0.2223378284253698</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2859169248521287</v>
+        <v>0.2874200872698907</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>457</v>
@@ -2075,19 +2075,19 @@
         <v>462306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>423592</v>
+        <v>424731</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>499370</v>
+        <v>498478</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2371133937407182</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2172570713786094</v>
+        <v>0.2178413148331395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2561231624073259</v>
+        <v>0.2556660077100362</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>303091</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>271992</v>
+        <v>273820</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>332368</v>
+        <v>333430</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2451358604721124</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2199836767123805</v>
+        <v>0.2214616036059732</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2688147714060538</v>
+        <v>0.2696741003162332</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>192</v>
@@ -2125,19 +2125,19 @@
         <v>199523</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>173873</v>
+        <v>177527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>222526</v>
+        <v>225286</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2797155603650454</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2437574006078322</v>
+        <v>0.2488792435146242</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3119653404226083</v>
+        <v>0.3158337954892777</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>496</v>
@@ -2146,19 +2146,19 @@
         <v>502613</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>464014</v>
+        <v>464816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>542139</v>
+        <v>540550</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2577868028335042</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2379893624047788</v>
+        <v>0.2384005577540857</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2780592482425186</v>
+        <v>0.2772441757354219</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>479411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>446394</v>
+        <v>444965</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>515588</v>
+        <v>515648</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3877411318421083</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3610375302425221</v>
+        <v>0.3598813892362788</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4170008789654581</v>
+        <v>0.4170490484206447</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>242</v>
@@ -2196,19 +2196,19 @@
         <v>244208</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>218941</v>
+        <v>221530</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>271958</v>
+        <v>269715</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3423612642653119</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3069387491409811</v>
+        <v>0.31056813420517</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3812640332221165</v>
+        <v>0.3781201848099813</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>709</v>
@@ -2217,19 +2217,19 @@
         <v>723619</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>681392</v>
+        <v>683605</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>764618</v>
+        <v>769987</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3711389608903884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3494813251280909</v>
+        <v>0.3506159951474952</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3921670405806902</v>
+        <v>0.3949208169776095</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>62432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48449</v>
+        <v>48253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81103</v>
+        <v>79923</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0504938375690431</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0391850107177467</v>
+        <v>0.03902677434631576</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0655947801653477</v>
+        <v>0.06464072035426645</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -2267,19 +2267,19 @@
         <v>38972</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28394</v>
+        <v>27860</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53903</v>
+        <v>53288</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05463584215567235</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03980628623350917</v>
+        <v>0.03905750996541568</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07556851020370113</v>
+        <v>0.07470589908840199</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>98</v>
@@ -2288,19 +2288,19 @@
         <v>101404</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82204</v>
+        <v>84365</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122688</v>
+        <v>123512</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0520091850546578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04216159951495401</v>
+        <v>0.04326995951128799</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06292586796496687</v>
+        <v>0.06334852513159733</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>109275</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90451</v>
+        <v>90808</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>131674</v>
+        <v>132033</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08838000420926767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07315559396720182</v>
+        <v>0.07344453058563004</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1064962836632032</v>
+        <v>0.1067862015899681</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -2338,19 +2338,19 @@
         <v>50508</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37349</v>
+        <v>38530</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64996</v>
+        <v>66543</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07080895737888362</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05236113288430617</v>
+        <v>0.05401664931844719</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09112006529967613</v>
+        <v>0.0932881199642855</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>155</v>
@@ -2359,19 +2359,19 @@
         <v>159783</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137789</v>
+        <v>135735</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>186271</v>
+        <v>184849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08195165748073134</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07067124250860178</v>
+        <v>0.06961729364814684</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09553720498192211</v>
+        <v>0.09480759369236692</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>86495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>70280</v>
+        <v>71559</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103469</v>
+        <v>104134</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2467363649221062</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2004823943334227</v>
+        <v>0.204131006699554</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2951590608228745</v>
+        <v>0.2970540303099113</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>147</v>
@@ -2484,19 +2484,19 @@
         <v>153997</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132898</v>
+        <v>132325</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>176880</v>
+        <v>173316</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2711760475944318</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2340227749280842</v>
+        <v>0.233012990176292</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3114710953173579</v>
+        <v>0.3051952274436517</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>233</v>
@@ -2505,19 +2505,19 @@
         <v>240492</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>213378</v>
+        <v>214138</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>270025</v>
+        <v>268991</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.261847786741952</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2323264217362439</v>
+        <v>0.2331538139674779</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.294003531454244</v>
+        <v>0.2928782995852616</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>71313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>56174</v>
+        <v>57000</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87010</v>
+        <v>86998</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2034288954154447</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1602419547481622</v>
+        <v>0.1625991544600054</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2482058872507342</v>
+        <v>0.2481715092092077</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>123</v>
@@ -2555,19 +2555,19 @@
         <v>130835</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>111726</v>
+        <v>111757</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>152754</v>
+        <v>151847</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2303890407110034</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1967394394948591</v>
+        <v>0.1967951000983783</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2689870520408719</v>
+        <v>0.2673901710870403</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>190</v>
@@ -2576,19 +2576,19 @@
         <v>202148</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178309</v>
+        <v>178263</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>229599</v>
+        <v>229782</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2200987570232162</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1941428436958353</v>
+        <v>0.1940935664258071</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2499874530423256</v>
+        <v>0.2501866252482859</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>135263</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>117575</v>
+        <v>116754</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>153791</v>
+        <v>153903</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3858527629970614</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.335398088932141</v>
+        <v>0.3330544480190595</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4387081746538068</v>
+        <v>0.4390260357441278</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>184</v>
@@ -2626,19 +2626,19 @@
         <v>193921</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>170948</v>
+        <v>170793</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>216357</v>
+        <v>216456</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3414783180314227</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3010259217735859</v>
+        <v>0.3007530901008916</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3809874146039725</v>
+        <v>0.3811606447543068</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>314</v>
@@ -2647,19 +2647,19 @@
         <v>329183</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>298804</v>
+        <v>299127</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>359518</v>
+        <v>359199</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3584153790961397</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3253385399645209</v>
+        <v>0.3256901832403537</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3914442930971598</v>
+        <v>0.3910962963550633</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>16653</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10323</v>
+        <v>9359</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26951</v>
+        <v>25896</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04750435757910535</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02944878318506155</v>
+        <v>0.02669718654387898</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07688172763850308</v>
+        <v>0.07387181198572797</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>36</v>
@@ -2697,19 +2697,19 @@
         <v>37352</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>25949</v>
+        <v>26394</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50450</v>
+        <v>50098</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06577437241063744</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04569325575343791</v>
+        <v>0.04647694222129597</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08883839914615056</v>
+        <v>0.08821847282936646</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>52</v>
@@ -2718,19 +2718,19 @@
         <v>54005</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40864</v>
+        <v>42023</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>69805</v>
+        <v>71825</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05880098137229183</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04449279283533939</v>
+        <v>0.04575456995675403</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07600360113575427</v>
+        <v>0.07820302178692594</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>40832</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30303</v>
+        <v>29929</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54704</v>
+        <v>55313</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1164776190862823</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08644301726943183</v>
+        <v>0.08537517784217606</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1560505119141275</v>
+        <v>0.1577870394136623</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -2768,19 +2768,19 @@
         <v>51781</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39418</v>
+        <v>38991</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67682</v>
+        <v>67331</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09118222125250469</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06941203291391118</v>
+        <v>0.06865966277719084</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1191815228674383</v>
+        <v>0.1185637752779296</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>89</v>
@@ -2789,19 +2789,19 @@
         <v>92613</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>74977</v>
+        <v>73796</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>112275</v>
+        <v>112808</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1008370957664002</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0816348540191674</v>
+        <v>0.0803488976661012</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1222450875535257</v>
+        <v>0.1228251657267048</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>32953</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22645</v>
+        <v>23495</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43595</v>
+        <v>44251</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1105064504885226</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0759383240674391</v>
+        <v>0.07879054974910778</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.14619425128217</v>
+        <v>0.1483921222542552</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>290</v>
@@ -2914,19 +2914,19 @@
         <v>299771</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>269936</v>
+        <v>269810</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>331100</v>
+        <v>332331</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2404369487760977</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.216507219381951</v>
+        <v>0.2164056172371574</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2655650727768885</v>
+        <v>0.2665519621004975</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>324</v>
@@ -2935,19 +2935,19 @@
         <v>332724</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>299509</v>
+        <v>301837</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>361495</v>
+        <v>367766</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2153586969670817</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1938596468386761</v>
+        <v>0.19536658664378</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2339808474214307</v>
+        <v>0.238039714784765</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>73329</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>59895</v>
+        <v>59369</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88087</v>
+        <v>87678</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2459046596230402</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2008529683361675</v>
+        <v>0.1990899326332607</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2953954916655468</v>
+        <v>0.2940228449834688</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>272</v>
@@ -2985,19 +2985,19 @@
         <v>275242</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>246634</v>
+        <v>245508</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>304869</v>
+        <v>302150</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2207624351573462</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1978176380323066</v>
+        <v>0.1969142904921</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2445253073986275</v>
+        <v>0.2423452430573615</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>347</v>
@@ -3006,19 +3006,19 @@
         <v>348571</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>318800</v>
+        <v>315340</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>377156</v>
+        <v>383226</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2256152067890992</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2063460149201991</v>
+        <v>0.204106166443781</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2441175235892789</v>
+        <v>0.2480464033694884</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>152297</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>135738</v>
+        <v>136526</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>168582</v>
+        <v>168011</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5107179567321821</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4551881919421594</v>
+        <v>0.4578335661228882</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5653291869130692</v>
+        <v>0.5634158929135855</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>515</v>
@@ -3056,19 +3056,19 @@
         <v>514943</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>475197</v>
+        <v>477768</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>548103</v>
+        <v>548629</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4130192002613603</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3811399636998521</v>
+        <v>0.3832027415135447</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4396160180791565</v>
+        <v>0.4400376072669016</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>672</v>
@@ -3077,19 +3077,19 @@
         <v>667239</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>629097</v>
+        <v>629100</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>705313</v>
+        <v>703909</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4318763127060472</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4071881786563627</v>
+        <v>0.4071901763126856</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4565197289601223</v>
+        <v>0.4556113388373743</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>16776</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10162</v>
+        <v>9977</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26164</v>
+        <v>26139</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05625662152971855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03407871646508531</v>
+        <v>0.03345600696511752</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0877403976086832</v>
+        <v>0.08765599383045765</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>54</v>
@@ -3127,19 +3127,19 @@
         <v>53056</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>40608</v>
+        <v>39972</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>68896</v>
+        <v>68307</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04255479812056451</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03257057805014455</v>
+        <v>0.03206049508236142</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05525918561730286</v>
+        <v>0.05478685732587702</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>71</v>
@@ -3148,19 +3148,19 @@
         <v>69832</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>53708</v>
+        <v>55259</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>87810</v>
+        <v>86931</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04519942568858096</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03476272553943391</v>
+        <v>0.03576680572574498</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05683591553271349</v>
+        <v>0.05626685299912582</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>22846</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14838</v>
+        <v>15088</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>33235</v>
+        <v>33977</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.07661431162653656</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04975955158391752</v>
+        <v>0.05059574343020159</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1114527358751423</v>
+        <v>0.1139388241546088</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>105</v>
@@ -3198,19 +3198,19 @@
         <v>103765</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>84901</v>
+        <v>86615</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>124695</v>
+        <v>125083</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08322661768463131</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06809605254633853</v>
+        <v>0.06947103985130076</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1000136270536732</v>
+        <v>0.1003254307736065</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>128</v>
@@ -3219,19 +3219,19 @@
         <v>126611</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>106990</v>
+        <v>108574</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>150180</v>
+        <v>150141</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08195035784919097</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06925005942648656</v>
+        <v>0.07027566679010833</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09720544362310567</v>
+        <v>0.09717988514700776</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>722115</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>676627</v>
+        <v>675882</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>770947</v>
+        <v>772866</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2210133048382247</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2070910533273895</v>
+        <v>0.2068631129750226</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2359588073031856</v>
+        <v>0.2365463730790366</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>786</v>
@@ -3344,19 +3344,19 @@
         <v>816577</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>767145</v>
+        <v>769532</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>867919</v>
+        <v>870145</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2422524962846691</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2275874743910634</v>
+        <v>0.2282957653109403</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2574841966295649</v>
+        <v>0.2581444626718308</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1496</v>
@@ -3365,19 +3365,19 @@
         <v>1538692</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1464993</v>
+        <v>1472434</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1602975</v>
+        <v>1608729</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2317984392103097</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2206958921846208</v>
+        <v>0.2218168497949067</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2414824271156315</v>
+        <v>0.2423492709441559</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>818094</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>772767</v>
+        <v>768051</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>869137</v>
+        <v>874381</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.250388886704257</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2365160102006871</v>
+        <v>0.2350725063029379</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2660113607942002</v>
+        <v>0.2676164064791053</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>784</v>
@@ -3415,19 +3415,19 @@
         <v>807154</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>762560</v>
+        <v>761881</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>859970</v>
+        <v>858356</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2394570181749172</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2262275185423884</v>
+        <v>0.2260258545796046</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2551258210850072</v>
+        <v>0.254646876323732</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1596</v>
@@ -3436,19 +3436,19 @@
         <v>1625248</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1558057</v>
+        <v>1555428</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1698038</v>
+        <v>1690175</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2448377492551601</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2347156825328497</v>
+        <v>0.2343196960038167</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2558032506371443</v>
+        <v>0.2546187879245692</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>1287082</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1234539</v>
+        <v>1232191</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1340299</v>
+        <v>1347322</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3939292279956656</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3778475051043124</v>
+        <v>0.3771288944834854</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4102170930465798</v>
+        <v>0.4123663461814518</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1287</v>
@@ -3486,19 +3486,19 @@
         <v>1306269</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1246450</v>
+        <v>1241723</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1359860</v>
+        <v>1357697</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3875285717821128</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3697820626495467</v>
+        <v>0.3683797962804442</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4034272211609287</v>
+        <v>0.4027856005927972</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2544</v>
@@ -3507,19 +3507,19 @@
         <v>2593351</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2514264</v>
+        <v>2517323</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2678803</v>
+        <v>2675693</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3906790130566103</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3787647726957717</v>
+        <v>0.3792256054019305</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4035520008226856</v>
+        <v>0.4030834660094019</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>166396</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>140512</v>
+        <v>140741</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>193309</v>
+        <v>191818</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05092765103920108</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04300559456274655</v>
+        <v>0.04307561147159746</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05916490797508697</v>
+        <v>0.05870848693112614</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>180</v>
@@ -3557,19 +3557,19 @@
         <v>183926</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>158640</v>
+        <v>160209</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>212104</v>
+        <v>212305</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05456515333387944</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04706356830122633</v>
+        <v>0.04752881694356615</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06292450120568033</v>
+        <v>0.06298419356293058</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>337</v>
@@ -3578,19 +3578,19 @@
         <v>350322</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>312392</v>
+        <v>316951</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>388223</v>
+        <v>390961</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0527747529463427</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04706074823804437</v>
+        <v>0.04774751377878687</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05848441130425502</v>
+        <v>0.05889686271741329</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>273606</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>242143</v>
+        <v>244363</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>307128</v>
+        <v>308591</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08374092942265163</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07411123786344934</v>
+        <v>0.07479065756986972</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09400064576313266</v>
+        <v>0.09444846148671482</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>252</v>
@@ -3628,19 +3628,19 @@
         <v>256842</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>225959</v>
+        <v>226421</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>289421</v>
+        <v>285415</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07619676042442149</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06703501594265608</v>
+        <v>0.06717184636451477</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.08586212280124142</v>
+        <v>0.08467355695710937</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>520</v>
@@ -3649,19 +3649,19 @@
         <v>530448</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>489773</v>
+        <v>485652</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>579248</v>
+        <v>577193</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0799100455315772</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.07378247576034069</v>
+        <v>0.07316170497528479</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08726169994679357</v>
+        <v>0.08695207218226683</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>163125</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141475</v>
+        <v>141017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185497</v>
+        <v>186546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.373102944467133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3235859536945966</v>
+        <v>0.3225378248210837</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4242743066232539</v>
+        <v>0.4266721701687907</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -4016,19 +4016,19 @@
         <v>114768</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97216</v>
+        <v>98692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132906</v>
+        <v>132820</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3694102600280099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3129162437362134</v>
+        <v>0.3176676942660207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4277942534132477</v>
+        <v>0.4275171045386792</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>252</v>
@@ -4037,19 +4037,19 @@
         <v>277892</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>251177</v>
+        <v>249899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>305417</v>
+        <v>306358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3715689773316456</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3358483620204274</v>
+        <v>0.3341396105545051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4083715995864821</v>
+        <v>0.409629678214187</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>142496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121270</v>
+        <v>122929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161990</v>
+        <v>162870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3259194242484101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2773719145416736</v>
+        <v>0.2811667809900613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3705082452476287</v>
+        <v>0.3725209399388447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -4087,19 +4087,19 @@
         <v>111048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94233</v>
+        <v>93494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129552</v>
+        <v>127082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3574383202955613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3033134754959447</v>
+        <v>0.3009339390871434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4169973169920927</v>
+        <v>0.4090465191712142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>237</v>
@@ -4108,19 +4108,19 @@
         <v>253544</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>227613</v>
+        <v>227434</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>282511</v>
+        <v>282193</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3390125957555475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3043404654580287</v>
+        <v>0.3041014867535682</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3777440304648514</v>
+        <v>0.3773198029544254</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>81240</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64924</v>
+        <v>62797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101768</v>
+        <v>99176</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1858136167410056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1484947439233251</v>
+        <v>0.1436307567661032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2327665014165984</v>
+        <v>0.2268383087392927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -4158,19 +4158,19 @@
         <v>53110</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40465</v>
+        <v>41542</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69250</v>
+        <v>70258</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1709491760474916</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.130246822101243</v>
+        <v>0.1337144839092839</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2229009798257101</v>
+        <v>0.2261441855117989</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>121</v>
@@ -4179,19 +4179,19 @@
         <v>134350</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115438</v>
+        <v>113694</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159891</v>
+        <v>157296</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1796388233387652</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1543511336509825</v>
+        <v>0.152020549332083</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2137897856766449</v>
+        <v>0.2103201288855677</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>15110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8747</v>
+        <v>9287</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23887</v>
+        <v>24858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03456034172383254</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02000697061416136</v>
+        <v>0.02124241348975999</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05463426108183617</v>
+        <v>0.05685502818254979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4229,19 +4229,19 @@
         <v>12909</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6814</v>
+        <v>7320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20772</v>
+        <v>21445</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0415498976593474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02193270511892667</v>
+        <v>0.02356070874438072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06686179373963991</v>
+        <v>0.06902574032513734</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -4250,19 +4250,19 @@
         <v>28019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19677</v>
+        <v>18198</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40263</v>
+        <v>39545</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03746385250941089</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02631010090736267</v>
+        <v>0.02433202973759768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05383517502705829</v>
+        <v>0.05287553511748692</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>35241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23380</v>
+        <v>23951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49404</v>
+        <v>48118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08060367281961869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05347500324867372</v>
+        <v>0.05478238311179404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1129991051272102</v>
+        <v>0.1100562372730628</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -4300,19 +4300,19 @@
         <v>18843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10738</v>
+        <v>11805</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28954</v>
+        <v>29461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06065234596958988</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03456321835002676</v>
+        <v>0.03799876665016384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09319682752550816</v>
+        <v>0.09482737305733778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -4321,19 +4321,19 @@
         <v>54084</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40575</v>
+        <v>40573</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73169</v>
+        <v>70893</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0723157510646309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05425308877907995</v>
+        <v>0.0542499262636196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09783432344048465</v>
+        <v>0.09479067323666292</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>122905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104574</v>
+        <v>101678</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144964</v>
+        <v>144766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2940687355964999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2502097815954962</v>
+        <v>0.2432798306349178</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3468474736783466</v>
+        <v>0.3463738548792948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -4446,19 +4446,19 @@
         <v>116618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99287</v>
+        <v>98468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134860</v>
+        <v>135777</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3460061722724893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2945859543523353</v>
+        <v>0.2921558204754892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4001321222366169</v>
+        <v>0.4028529315871032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -4467,19 +4467,19 @@
         <v>239523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>212514</v>
+        <v>213003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266165</v>
+        <v>269941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3172545016307273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2814805600537155</v>
+        <v>0.2821288819588605</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3525432593202731</v>
+        <v>0.3575441409691085</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>155563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134043</v>
+        <v>133364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178691</v>
+        <v>176359</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3722070907730212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.320716861985365</v>
+        <v>0.3190925104795351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4275442956415231</v>
+        <v>0.4219650434011133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -4517,19 +4517,19 @@
         <v>111720</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95157</v>
+        <v>94017</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131637</v>
+        <v>130051</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3314747198790856</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.282331951421137</v>
+        <v>0.2789513787468247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.390568433833121</v>
+        <v>0.3858635176244151</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>240</v>
@@ -4538,19 +4538,19 @@
         <v>267283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240269</v>
+        <v>242146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>296975</v>
+        <v>298935</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3540234590420627</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3182434431765205</v>
+        <v>0.3207291189805936</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3933523006753087</v>
+        <v>0.3959477555497362</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>91706</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76105</v>
+        <v>75365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112133</v>
+        <v>110115</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2194194688013149</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1820933221235094</v>
+        <v>0.180322504256017</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2682940975470132</v>
+        <v>0.2634652489732224</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>66</v>
@@ -4588,19 +4588,19 @@
         <v>75644</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60154</v>
+        <v>60745</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91069</v>
+        <v>93956</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2244383506355205</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1784789103073666</v>
+        <v>0.1802320637275766</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2702042038608848</v>
+        <v>0.2787686469210783</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>151</v>
@@ -4609,19 +4609,19 @@
         <v>167350</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>144508</v>
+        <v>143799</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>193930</v>
+        <v>192293</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2216599840713941</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1914049442539275</v>
+        <v>0.1904653869710108</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2568650813133584</v>
+        <v>0.2546977089222049</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>12991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6910</v>
+        <v>6206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22915</v>
+        <v>23198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03108353706400903</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01653368199332205</v>
+        <v>0.01484797020805352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05482663396067166</v>
+        <v>0.05550529104588619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4659,19 +4659,19 @@
         <v>8929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3929</v>
+        <v>4078</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18673</v>
+        <v>18379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02649107674437033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01165873840807793</v>
+        <v>0.01210063585191814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05540250337679849</v>
+        <v>0.05453074403361474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -4680,19 +4680,19 @@
         <v>21920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13084</v>
+        <v>13596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33439</v>
+        <v>33461</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02903338370051349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01733019393503077</v>
+        <v>0.0180076854536515</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04429071723989522</v>
+        <v>0.04432065991148151</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>34782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23512</v>
+        <v>23482</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49014</v>
+        <v>51564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08322116776515498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05625523235291522</v>
+        <v>0.05618431561333095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1172744119966603</v>
+        <v>0.1233739375352672</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -4730,19 +4730,19 @@
         <v>24129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15933</v>
+        <v>15208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35321</v>
+        <v>35092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07158968046853427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04727203055440063</v>
+        <v>0.04512106293864054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1047981083769302</v>
+        <v>0.1041187895090822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -4751,19 +4751,19 @@
         <v>58911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>44288</v>
+        <v>43285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78664</v>
+        <v>75484</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07802867155530235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05866035742530996</v>
+        <v>0.05733256235481115</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1041932204055866</v>
+        <v>0.09998075078118554</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>236616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>209768</v>
+        <v>212412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>261424</v>
+        <v>263261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3771069407698446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3343188293624097</v>
+        <v>0.3385315718065229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4166456374361313</v>
+        <v>0.4195736622338399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -4876,19 +4876,19 @@
         <v>109358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93651</v>
+        <v>93972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>125723</v>
+        <v>125663</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4203990303982403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3600168302579242</v>
+        <v>0.3612499522594959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4833090722067674</v>
+        <v>0.4830789557949592</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>318</v>
@@ -4897,19 +4897,19 @@
         <v>345974</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>314886</v>
+        <v>315310</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>376166</v>
+        <v>376768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3897948702871261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3547690862086268</v>
+        <v>0.3552473172831978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4238113652427026</v>
+        <v>0.4244892108767125</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>199321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176176</v>
+        <v>173579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>224630</v>
+        <v>223206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3176683775386279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2807812131893047</v>
+        <v>0.2766418951474046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3580052564574133</v>
+        <v>0.3557350490217797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -4947,19 +4947,19 @@
         <v>72460</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59334</v>
+        <v>58725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88655</v>
+        <v>88702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2785538064549946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2280935127482333</v>
+        <v>0.2257520495163253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3408110133440601</v>
+        <v>0.3409918441394282</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>260</v>
@@ -4968,19 +4968,19 @@
         <v>271781</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>246391</v>
+        <v>244270</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>301461</v>
+        <v>301240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3062047839521839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2775988504268108</v>
+        <v>0.275209447322609</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3396443037828441</v>
+        <v>0.3393948514191337</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>113896</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95705</v>
+        <v>96076</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133832</v>
+        <v>134567</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1815216982002197</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1525307066887663</v>
+        <v>0.1531211691250343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2132955915924673</v>
+        <v>0.2144660828859804</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -5018,19 +5018,19 @@
         <v>40271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29216</v>
+        <v>29187</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54325</v>
+        <v>53115</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1548107560400826</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1123138733973091</v>
+        <v>0.1122030261886327</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2088368426734235</v>
+        <v>0.2041860032755446</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -5039,19 +5039,19 @@
         <v>154167</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133294</v>
+        <v>132168</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>178941</v>
+        <v>178512</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1736933269116758</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.150176708381642</v>
+        <v>0.1489087220828049</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2016056788737557</v>
+        <v>0.2011224898839198</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>11883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6388</v>
+        <v>6736</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20166</v>
+        <v>21032</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01893906140622558</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01018111024966396</v>
+        <v>0.01073474896364821</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03213976307563138</v>
+        <v>0.03351954815631403</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -5089,19 +5089,19 @@
         <v>8043</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3037</v>
+        <v>3106</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16766</v>
+        <v>15917</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03092089456497578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01167661173189418</v>
+        <v>0.0119399137236738</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06445106850269211</v>
+        <v>0.06119062337288456</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -5110,19 +5110,19 @@
         <v>19927</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12121</v>
+        <v>12231</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31387</v>
+        <v>30641</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02245066493266598</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01365635190391065</v>
+        <v>0.01378007391935674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0353628334307226</v>
+        <v>0.03452155191402338</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>65734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50824</v>
+        <v>50055</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82891</v>
+        <v>82420</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1047639220850821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0810003853678402</v>
+        <v>0.07977456737628209</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.132108402731921</v>
+        <v>0.1313573578597505</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -5160,19 +5160,19 @@
         <v>29997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19782</v>
+        <v>19834</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41336</v>
+        <v>41212</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1153155125417068</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07604743886925497</v>
+        <v>0.07624727665586374</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1589071608681493</v>
+        <v>0.1584302975464889</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>86</v>
@@ -5181,19 +5181,19 @@
         <v>95731</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77328</v>
+        <v>77866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117348</v>
+        <v>117148</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1078563539163482</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08712176776019326</v>
+        <v>0.08772850806617404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1322117374909798</v>
+        <v>0.1319861064772414</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>410520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>377857</v>
+        <v>375856</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>442825</v>
+        <v>444280</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3550765462854513</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3268249498197319</v>
+        <v>0.325093997882572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3830182888494542</v>
+        <v>0.3842770528864441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>261</v>
@@ -5306,19 +5306,19 @@
         <v>282208</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>256027</v>
+        <v>254427</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>311076</v>
+        <v>310252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3690408050765431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3348044719268191</v>
+        <v>0.3327122191852061</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4067911926073332</v>
+        <v>0.4057136193000324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>646</v>
@@ -5327,19 +5327,19 @@
         <v>692728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>649270</v>
+        <v>652657</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>738335</v>
+        <v>736779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3606358313477191</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3380113884820973</v>
+        <v>0.3397746634544954</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.384378859317489</v>
+        <v>0.3835690280898056</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>370479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>337404</v>
+        <v>337224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>403773</v>
+        <v>404861</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.320443543413738</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2918349989858042</v>
+        <v>0.2916794781723994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3492408229939758</v>
+        <v>0.3501822117360966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>235</v>
@@ -5377,19 +5377,19 @@
         <v>252434</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>226670</v>
+        <v>227548</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>279550</v>
+        <v>279967</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3301049368413282</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2964145974145865</v>
+        <v>0.2975625413698971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3655652411205371</v>
+        <v>0.3661098357381858</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>582</v>
@@ -5398,19 +5398,19 @@
         <v>622913</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>576591</v>
+        <v>584262</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>668299</v>
+        <v>669746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.324289822759188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3001746408634744</v>
+        <v>0.3041681289075486</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3479178320596389</v>
+        <v>0.3486714502178266</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>204361</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>175990</v>
+        <v>180727</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>229836</v>
+        <v>232862</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1767604547982571</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1522215303373873</v>
+        <v>0.1563188758090162</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.198794745124822</v>
+        <v>0.2014120336788771</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>139</v>
@@ -5448,19 +5448,19 @@
         <v>151245</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>128872</v>
+        <v>129417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175322</v>
+        <v>175027</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.197781023797666</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1685245601691319</v>
+        <v>0.1692370189696789</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2292663006104474</v>
+        <v>0.2288817600093847</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>333</v>
@@ -5469,19 +5469,19 @@
         <v>355605</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>322078</v>
+        <v>322696</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>392872</v>
+        <v>389459</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1851289143768874</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.167674561244033</v>
+        <v>0.1679963116173751</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2045300729329703</v>
+        <v>0.2027532644297216</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>32172</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21465</v>
+        <v>21987</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45636</v>
+        <v>47079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02782696454831703</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01856606808225772</v>
+        <v>0.01901745275419157</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03947240580371515</v>
+        <v>0.04072041082828974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -5519,19 +5519,19 @@
         <v>13014</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7028</v>
+        <v>7760</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21509</v>
+        <v>22081</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01701805398288988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009191070849057934</v>
+        <v>0.01014754814145179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02812673634390948</v>
+        <v>0.0288747900446786</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -5540,19 +5540,19 @@
         <v>45186</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32163</v>
+        <v>33374</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60582</v>
+        <v>60130</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02352384929209582</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01674398870803197</v>
+        <v>0.01737442043385818</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03153895190867975</v>
+        <v>0.03130404319751076</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>138613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>117914</v>
+        <v>117935</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>164066</v>
+        <v>163505</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1198924909542366</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1019887335583922</v>
+        <v>0.1020073685624654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1419076310412029</v>
+        <v>0.1414227365914766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -5590,19 +5590,19 @@
         <v>65807</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51876</v>
+        <v>50061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83710</v>
+        <v>83293</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08605518030157285</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06783769185815224</v>
+        <v>0.0654645605487145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.109467283246153</v>
+        <v>0.1089217774938929</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>186</v>
@@ -5611,19 +5611,19 @@
         <v>204420</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>177371</v>
+        <v>176112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>235040</v>
+        <v>233223</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1064215822241096</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09233981511654235</v>
+        <v>0.09168424644089292</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1223621528065515</v>
+        <v>0.12141644255556</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>174998</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>154094</v>
+        <v>152968</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>198077</v>
+        <v>198868</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3427337161660007</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3017929867706153</v>
+        <v>0.2995872703552901</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3879329367294671</v>
+        <v>0.3894817523226261</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>274</v>
@@ -5736,19 +5736,19 @@
         <v>298146</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>270484</v>
+        <v>272795</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>325049</v>
+        <v>327611</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3948871705848331</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3582491868298734</v>
+        <v>0.3613098254759873</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4305198142747733</v>
+        <v>0.4339129988998621</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>442</v>
@@ -5757,19 +5757,19 @@
         <v>473145</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>435763</v>
+        <v>437580</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>507792</v>
+        <v>507480</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3738464847349391</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3443098524278019</v>
+        <v>0.3457455653937168</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4012220552872199</v>
+        <v>0.4009757554681352</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>151933</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>132215</v>
+        <v>128678</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>175723</v>
+        <v>172489</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2975591500240389</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2589420497504821</v>
+        <v>0.2520150180425876</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3441525848280785</v>
+        <v>0.3378194397625274</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>194</v>
@@ -5807,19 +5807,19 @@
         <v>206659</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>183078</v>
+        <v>182942</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>231052</v>
+        <v>230738</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2737145492100164</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2424817555021028</v>
+        <v>0.242301904215391</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3060226039500432</v>
+        <v>0.3056065671670153</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>340</v>
@@ -5828,19 +5828,19 @@
         <v>358592</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>324299</v>
+        <v>327571</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>388482</v>
+        <v>391025</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2833343675045992</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2562388628494592</v>
+        <v>0.2588239381898887</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3069518368880461</v>
+        <v>0.3089609908702514</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>88420</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71803</v>
+        <v>72160</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>108247</v>
+        <v>106596</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1731693321436721</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1406266895870465</v>
+        <v>0.1413244222002174</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2120003732795673</v>
+        <v>0.208767344712845</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>96</v>
@@ -5878,19 +5878,19 @@
         <v>104121</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>85919</v>
+        <v>86523</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>125983</v>
+        <v>127157</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1379061987933932</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1137975571401886</v>
+        <v>0.1145978189812599</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1668614868343757</v>
+        <v>0.1684161555365475</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>180</v>
@@ -5899,19 +5899,19 @@
         <v>192541</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>170159</v>
+        <v>167935</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>223032</v>
+        <v>220999</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1521326871281375</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1344479852536433</v>
+        <v>0.1326903043716346</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1762245258305048</v>
+        <v>0.1746182274798004</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>7600</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2913</v>
+        <v>2969</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14511</v>
+        <v>14925</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01488364226953504</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00570535211820537</v>
+        <v>0.005815454065865458</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02841944685393005</v>
+        <v>0.02922972845867307</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -5949,19 +5949,19 @@
         <v>19047</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11278</v>
+        <v>11010</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>32132</v>
+        <v>30374</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02522724333198814</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01493755182748538</v>
+        <v>0.01458252754968532</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04255783833655814</v>
+        <v>0.04022963480916866</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -5970,19 +5970,19 @@
         <v>26647</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17028</v>
+        <v>17261</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40139</v>
+        <v>39475</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02105424150618545</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01345414480888495</v>
+        <v>0.01363841900330121</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03171513967684308</v>
+        <v>0.03119010094606097</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>87646</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>71618</v>
+        <v>71398</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>106094</v>
+        <v>106340</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1716541593967533</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1402631093807798</v>
+        <v>0.1398326110185039</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2077845824141118</v>
+        <v>0.2082669552307977</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>117</v>
@@ -6020,19 +6020,19 @@
         <v>127043</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>104738</v>
+        <v>106433</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>148301</v>
+        <v>147099</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1682648380797692</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1387232063082222</v>
+        <v>0.1409682882594573</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1964213224352561</v>
+        <v>0.1948287823557925</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>199</v>
@@ -6041,19 +6041,19 @@
         <v>214689</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>189681</v>
+        <v>189839</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>243298</v>
+        <v>243032</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1696322191261387</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1498728261918588</v>
+        <v>0.1499978589029184</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1922371848055267</v>
+        <v>0.1920268004105341</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>72602</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59764</v>
+        <v>57355</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>88341</v>
+        <v>88275</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2729973205425455</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2247226277088432</v>
+        <v>0.2156631248366143</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3321780541862937</v>
+        <v>0.3319304734160925</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>472</v>
@@ -6166,19 +6166,19 @@
         <v>503683</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>467290</v>
+        <v>472109</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>537595</v>
+        <v>535724</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.456200274534838</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4232373229391717</v>
+        <v>0.4276020045633996</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.486915189847981</v>
+        <v>0.4852205346389626</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>541</v>
@@ -6187,19 +6187,19 @@
         <v>576286</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>538458</v>
+        <v>540885</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>613136</v>
+        <v>615029</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4206375850764364</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3930270276789897</v>
+        <v>0.3947984295995549</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4475351563810473</v>
+        <v>0.4489170047221532</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>104054</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>87580</v>
+        <v>89369</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>119227</v>
+        <v>120996</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3912600581840739</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3293147150428651</v>
+        <v>0.336041970808484</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4483138127466898</v>
+        <v>0.4549659243125632</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>290</v>
@@ -6237,19 +6237,19 @@
         <v>307154</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>275541</v>
+        <v>275607</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>335133</v>
+        <v>336333</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2781976751254979</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2495649683862073</v>
+        <v>0.2496253708463608</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3035398260181437</v>
+        <v>0.3046261137085924</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>397</v>
@@ -6258,19 +6258,19 @@
         <v>411207</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>375300</v>
+        <v>374012</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>445490</v>
+        <v>444608</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3001449326915966</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2739360172394927</v>
+        <v>0.2729955784884773</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3251681394069751</v>
+        <v>0.3245246259247482</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>60601</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>48684</v>
+        <v>47570</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>74085</v>
+        <v>75858</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2278705636274866</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1830595226198327</v>
+        <v>0.1788721667324806</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2785719778973995</v>
+        <v>0.285238244137535</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>169</v>
@@ -6308,19 +6308,19 @@
         <v>176883</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>152460</v>
+        <v>153913</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>204817</v>
+        <v>205084</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1602082487607614</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1380871962009423</v>
+        <v>0.1394034954820592</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1855086165072967</v>
+        <v>0.1857499917704486</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>231</v>
@@ -6329,19 +6329,19 @@
         <v>237484</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209337</v>
+        <v>210358</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>266086</v>
+        <v>268087</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1733426106212321</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1527975254300812</v>
+        <v>0.1535429821735775</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1942194950515464</v>
+        <v>0.1956800744854108</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>7903</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3895</v>
+        <v>3790</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14908</v>
+        <v>14064</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02971536194155966</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01464688551878936</v>
+        <v>0.01425190132354237</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0560582598007426</v>
+        <v>0.05288209894863767</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>28</v>
@@ -6379,19 +6379,19 @@
         <v>29133</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>20391</v>
+        <v>19997</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>41762</v>
+        <v>41867</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02638671072018255</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01846840128403194</v>
+        <v>0.01811202834387745</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03782506429416856</v>
+        <v>0.03792002309196899</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>36</v>
@@ -6400,19 +6400,19 @@
         <v>37036</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>26167</v>
+        <v>26322</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50978</v>
+        <v>50151</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02703285635878477</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01909951054326679</v>
+        <v>0.01921286045369441</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0372093818435074</v>
+        <v>0.03660555142454584</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>20785</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12859</v>
+        <v>11914</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31382</v>
+        <v>31305</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.07815669570433435</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04835115469675441</v>
+        <v>0.04479830352151355</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1180029364281314</v>
+        <v>0.1177129069777388</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>80</v>
@@ -6450,19 +6450,19 @@
         <v>87230</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>70698</v>
+        <v>68232</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>106498</v>
+        <v>106844</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.07900709085872018</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06403296846730119</v>
+        <v>0.06180005954215507</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09645861887137482</v>
+        <v>0.09677144860246652</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>98</v>
@@ -6471,19 +6471,19 @@
         <v>108016</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>88093</v>
+        <v>88653</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>128210</v>
+        <v>130733</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07884201525195007</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06430016068182894</v>
+        <v>0.06470864710650838</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09358169263024976</v>
+        <v>0.09542369760804864</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>1180767</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1120042</v>
+        <v>1122545</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1239197</v>
+        <v>1238896</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3457290343449834</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3279487286481953</v>
+        <v>0.3286815681356647</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3628374077289927</v>
+        <v>0.3627493287135844</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1319</v>
@@ -6596,19 +6596,19 @@
         <v>1424781</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1365991</v>
+        <v>1365822</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1486233</v>
+        <v>1480442</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4034317137594241</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3867849236545423</v>
+        <v>0.3867370829086439</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4208320760310527</v>
+        <v>0.4191921569756096</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2416</v>
@@ -6617,19 +6617,19 @@
         <v>2605547</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2514115</v>
+        <v>2518054</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2686063</v>
+        <v>2688513</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3750636238133106</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3619020579230578</v>
+        <v>0.3624691009944017</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.386653664837863</v>
+        <v>0.3870063251838657</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>1123845</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1062780</v>
+        <v>1072197</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1185042</v>
+        <v>1178661</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3290623852209104</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3111826215583274</v>
+        <v>0.3139398626580286</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3469809994170711</v>
+        <v>0.3451124318569536</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>990</v>
@@ -6667,19 +6667,19 @@
         <v>1061474</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1008303</v>
+        <v>1004417</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1121066</v>
+        <v>1113790</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3005601271681477</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2855044297476323</v>
+        <v>0.2844041907802892</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3174336362205401</v>
+        <v>0.3153735260636163</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2056</v>
@@ -6688,19 +6688,19 @@
         <v>2185319</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2100779</v>
+        <v>2102263</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2269981</v>
+        <v>2274376</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3145725548112523</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3024031270879931</v>
+        <v>0.3026167955685453</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.326759394900546</v>
+        <v>0.3273921567786023</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>640223</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>594607</v>
+        <v>595859</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>688578</v>
+        <v>688435</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1874575310609199</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1741010903471893</v>
+        <v>0.174467741999259</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2016158782518096</v>
+        <v>0.2015741556729295</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>555</v>
@@ -6738,19 +6738,19 @@
         <v>601275</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>555063</v>
+        <v>559050</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>647388</v>
+        <v>647407</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1702530371387285</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1571678860684821</v>
+        <v>0.1582969310198502</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1833102044198795</v>
+        <v>0.1833154400539463</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1166</v>
@@ -6759,19 +6759,19 @@
         <v>1241497</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1179061</v>
+        <v>1177314</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1306351</v>
+        <v>1308190</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1787111994981691</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1697235377991706</v>
+        <v>0.1694720486224024</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1880466794639753</v>
+        <v>0.188311410984364</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>87659</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>70174</v>
+        <v>70086</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>109355</v>
+        <v>108130</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02566658338312222</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02054695679576162</v>
+        <v>0.0205211694374517</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03201915934676963</v>
+        <v>0.03166050228679013</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>85</v>
@@ -6809,19 +6809,19 @@
         <v>91075</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>73970</v>
+        <v>72811</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>113225</v>
+        <v>111458</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02578807644630508</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02094499252139938</v>
+        <v>0.02061676498780606</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0320601774588728</v>
+        <v>0.0315597468798644</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>167</v>
@@ -6830,19 +6830,19 @@
         <v>178733</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>153455</v>
+        <v>153874</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>210271</v>
+        <v>207579</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02572834739768593</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02208958462985494</v>
+        <v>0.02214993769359503</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03026808860415708</v>
+        <v>0.02988059270520768</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>382802</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>345220</v>
+        <v>344414</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>424945</v>
+        <v>425404</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1120844659900641</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1010805666194786</v>
+        <v>0.1008444867296544</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1244240772323322</v>
+        <v>0.1245583768194325</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>325</v>
@@ -6880,19 +6880,19 @@
         <v>353049</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>317755</v>
+        <v>314980</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>393456</v>
+        <v>391871</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09996704548739459</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08997334614477215</v>
+        <v>0.08918768429609608</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.111408388238481</v>
+        <v>0.1109597390297826</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>667</v>
@@ -6901,19 +6901,19 @@
         <v>735850</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>679080</v>
+        <v>682041</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>790647</v>
+        <v>790537</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1059242744795821</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09775226568434954</v>
+        <v>0.09817847063430815</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1138121229792448</v>
+        <v>0.1137963448296255</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>145425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125350</v>
+        <v>123608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167841</v>
+        <v>165789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.339598417905696</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2927199347824974</v>
+        <v>0.2886520343051303</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3919450277266616</v>
+        <v>0.3871537586841637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -7268,19 +7268,19 @@
         <v>129321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110637</v>
+        <v>111749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147331</v>
+        <v>149246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3726243475788445</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3187877518587692</v>
+        <v>0.3219911883041559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4245184356533973</v>
+        <v>0.4300363214124991</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -7289,19 +7289,19 @@
         <v>274746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246918</v>
+        <v>247769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301089</v>
+        <v>304256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3543825058020655</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3184894219510729</v>
+        <v>0.3195867338367908</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3883620222133723</v>
+        <v>0.3924460340807679</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>164930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144683</v>
+        <v>144944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186395</v>
+        <v>186900</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3851491355624886</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3378658505189766</v>
+        <v>0.3384759786730754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.435273618036469</v>
+        <v>0.4364535306392182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -7339,19 +7339,19 @@
         <v>136431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120147</v>
+        <v>117740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157255</v>
+        <v>155776</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3931113731362072</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3461886912822222</v>
+        <v>0.3392538150683438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4531133603214283</v>
+        <v>0.4488503136196155</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -7360,19 +7360,19 @@
         <v>301362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>272343</v>
+        <v>274479</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>330745</v>
+        <v>328302</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3887134385603642</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3512829479830632</v>
+        <v>0.354038918400906</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4266136543844869</v>
+        <v>0.4234622019180684</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>74824</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58366</v>
+        <v>59180</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91845</v>
+        <v>92671</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.174731414362441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1362977963801145</v>
+        <v>0.1381977818317817</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2144793980976011</v>
+        <v>0.2164077760960833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>63</v>
@@ -7410,19 +7410,19 @@
         <v>61230</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47882</v>
+        <v>48068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75890</v>
+        <v>76211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1764280672530625</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1379654640038375</v>
+        <v>0.1385031313298598</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2186676875049079</v>
+        <v>0.2195926019838801</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>130</v>
@@ -7431,19 +7431,19 @@
         <v>136055</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114672</v>
+        <v>116092</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159406</v>
+        <v>158498</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1754909225946944</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1479101467511801</v>
+        <v>0.1497420213228859</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.20561042529808</v>
+        <v>0.2044397499619743</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>11250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5360</v>
+        <v>5811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21360</v>
+        <v>20967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02627039966713237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01251680888991179</v>
+        <v>0.01356905205438503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04987919242192862</v>
+        <v>0.04896281799082012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -7481,19 +7481,19 @@
         <v>5783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1947</v>
+        <v>2076</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11755</v>
+        <v>11684</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01666188495366433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005610580609182307</v>
+        <v>0.005982356361152209</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03387023555885999</v>
+        <v>0.03366487133628173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -7502,19 +7502,19 @@
         <v>17032</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10768</v>
+        <v>9645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27375</v>
+        <v>26871</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02196913918837086</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01388870995891378</v>
+        <v>0.01244084240040729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03531004889884128</v>
+        <v>0.03465997326172</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>31796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22526</v>
+        <v>22852</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43981</v>
+        <v>43970</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07425063250224202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05260218956477643</v>
+        <v>0.05336469781528703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1027045593208029</v>
+        <v>0.1026787866366697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -7552,19 +7552,19 @@
         <v>14290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7528</v>
+        <v>7585</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25136</v>
+        <v>24973</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04117432707822153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02169141716804053</v>
+        <v>0.0218559262692574</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07242731007809533</v>
+        <v>0.07195812419239288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -7573,19 +7573,19 @@
         <v>46086</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33937</v>
+        <v>33553</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60205</v>
+        <v>61269</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05944399385450513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04377380003741783</v>
+        <v>0.04327835999245033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07765563439197293</v>
+        <v>0.07902764546109453</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>139564</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119733</v>
+        <v>120340</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159779</v>
+        <v>159023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3730220422711454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3200172738481365</v>
+        <v>0.321638870454461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4270501560415534</v>
+        <v>0.4250307202203552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -7698,19 +7698,19 @@
         <v>123016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105098</v>
+        <v>104981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142873</v>
+        <v>142955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3323531346316986</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2839439927045372</v>
+        <v>0.2836296983705424</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3860013069614897</v>
+        <v>0.386223902394348</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>243</v>
@@ -7719,19 +7719,19 @@
         <v>262580</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>237042</v>
+        <v>237332</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288007</v>
+        <v>290938</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3527971571061022</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3184851515819304</v>
+        <v>0.3188740692435498</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3869609190485941</v>
+        <v>0.3908984244025233</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>142752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123464</v>
+        <v>124112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163355</v>
+        <v>162661</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3815428514090718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3299908313478735</v>
+        <v>0.3317206573949709</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4366079929197786</v>
+        <v>0.4347544936723481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -7769,19 +7769,19 @@
         <v>139773</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121405</v>
+        <v>120277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158647</v>
+        <v>158446</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3776270379345663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3280028404854743</v>
+        <v>0.3249532415736251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4286180939757229</v>
+        <v>0.4280773067855005</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -7790,19 +7790,19 @@
         <v>282525</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257782</v>
+        <v>254960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>310574</v>
+        <v>308829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3795954945104865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3463507343670341</v>
+        <v>0.342559152166507</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4172815537212813</v>
+        <v>0.4149364520575928</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>64090</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50007</v>
+        <v>49651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80290</v>
+        <v>80503</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.171297802374232</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1336575774892169</v>
+        <v>0.1327044898176842</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2145962295128035</v>
+        <v>0.2151659044686628</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>66</v>
@@ -7840,19 +7840,19 @@
         <v>70679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55761</v>
+        <v>55559</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86601</v>
+        <v>87879</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1909553860448965</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1506517295765651</v>
+        <v>0.1501048990245752</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.233972655431131</v>
+        <v>0.2374244682358928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>126</v>
@@ -7861,19 +7861,19 @@
         <v>134769</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>115278</v>
+        <v>113159</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155589</v>
+        <v>156991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1810736334805436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1548856005440578</v>
+        <v>0.1520382391043599</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2090458086356397</v>
+        <v>0.2109306784705168</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>9243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5001</v>
+        <v>5012</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17502</v>
+        <v>17201</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02470523017991458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01336584944448684</v>
+        <v>0.01339568637392996</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04677821180926745</v>
+        <v>0.04597473148419368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -7911,19 +7911,19 @@
         <v>16343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8778</v>
+        <v>9992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26578</v>
+        <v>27940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04415303679629093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02371654310977008</v>
+        <v>0.02699502851794283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07180489861924209</v>
+        <v>0.07548624498676257</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -7932,19 +7932,19 @@
         <v>25586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15906</v>
+        <v>17249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37623</v>
+        <v>40043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03437673793260056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02137056167634517</v>
+        <v>0.02317498830887883</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05054989040337398</v>
+        <v>0.05380067509740238</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>18495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10665</v>
+        <v>10945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29738</v>
+        <v>29983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04943207376563623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02850533479943451</v>
+        <v>0.02925302699981287</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07948160459286925</v>
+        <v>0.08013823631731005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -7982,19 +7982,19 @@
         <v>20325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12450</v>
+        <v>13339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30159</v>
+        <v>31452</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05491140459254774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03363598136272639</v>
+        <v>0.03603702772516213</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08148127455265244</v>
+        <v>0.08497521851420839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -8003,19 +8003,19 @@
         <v>38819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27934</v>
+        <v>27401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54359</v>
+        <v>54257</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05215697697026713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03753154220989702</v>
+        <v>0.03681553906176714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07303526588206881</v>
+        <v>0.0728981786704756</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>180386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158072</v>
+        <v>158725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>204438</v>
+        <v>203236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3475660045471093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3045716121481132</v>
+        <v>0.3058293738740783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3939095858245411</v>
+        <v>0.3915942480889596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -8128,19 +8128,19 @@
         <v>60437</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48454</v>
+        <v>47605</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73107</v>
+        <v>73326</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3638108319211831</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2916734809245273</v>
+        <v>0.28656402708217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4400782427410604</v>
+        <v>0.4413976483506951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -8149,19 +8149,19 @@
         <v>240823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>218045</v>
+        <v>214621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>267049</v>
+        <v>266666</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3515049314709759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3182582999627697</v>
+        <v>0.3132607252216429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3897842882395492</v>
+        <v>0.389225488137686</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>192971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171286</v>
+        <v>171516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>216852</v>
+        <v>215906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.371815313479358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3300331990308708</v>
+        <v>0.3304765208590882</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4178285708422206</v>
+        <v>0.4160056946640189</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -8199,19 +8199,19 @@
         <v>65395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52992</v>
+        <v>53091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78604</v>
+        <v>78455</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3936558758120684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3189931889455539</v>
+        <v>0.3195903525262573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4731663141207921</v>
+        <v>0.4722710839487704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>245</v>
@@ -8220,19 +8220,19 @@
         <v>258366</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>232289</v>
+        <v>232610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284095</v>
+        <v>282918</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3771110532877107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3390484963574776</v>
+        <v>0.3395168338164621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4146651128956645</v>
+        <v>0.4129469696585148</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>94071</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77068</v>
+        <v>75913</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112733</v>
+        <v>112515</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1812552504389552</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1484949825618899</v>
+        <v>0.14626836072866</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.217212376619997</v>
+        <v>0.2167923583702349</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -8270,19 +8270,19 @@
         <v>29067</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20297</v>
+        <v>20512</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40230</v>
+        <v>39262</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.17497141415632</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1221799546379417</v>
+        <v>0.1234757447950226</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2421671595311648</v>
+        <v>0.2363456370585169</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>120</v>
@@ -8291,19 +8291,19 @@
         <v>123138</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>104418</v>
+        <v>102969</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>143112</v>
+        <v>143785</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1797315917783316</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1524086787289621</v>
+        <v>0.1502939233855431</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2088854245089539</v>
+        <v>0.2098679308711742</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>10884</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5937</v>
+        <v>5891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18621</v>
+        <v>19245</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02097143385857464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0114402292563866</v>
+        <v>0.01135019692314712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0358781118820817</v>
+        <v>0.03708177899908362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8341,19 +8341,19 @@
         <v>3035</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9039</v>
+        <v>8156</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01826705427548407</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005834184413135893</v>
+        <v>0.005839113188107426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05441433739119878</v>
+        <v>0.04909338805995545</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -8362,19 +8362,19 @@
         <v>13919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7158</v>
+        <v>8159</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21731</v>
+        <v>23168</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02031569567762041</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01044775214377287</v>
+        <v>0.01190901561291407</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0317191572687256</v>
+        <v>0.03381647792314135</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>40685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28791</v>
+        <v>28903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54756</v>
+        <v>54951</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0783919976760028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05547409242306933</v>
+        <v>0.05568929375458581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1055036963218747</v>
+        <v>0.1058795289356984</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -8412,19 +8412,19 @@
         <v>8189</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3475</v>
+        <v>3428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15534</v>
+        <v>15759</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04929482383494443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02091674239670051</v>
+        <v>0.02063641887208718</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09351047472517673</v>
+        <v>0.0948624380156249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -8433,19 +8433,19 @@
         <v>48874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36663</v>
+        <v>35710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63981</v>
+        <v>63404</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07133672778536128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05351365847580956</v>
+        <v>0.05212202148057231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09338710636017693</v>
+        <v>0.09254492317992533</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>385073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>357344</v>
+        <v>353887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>418749</v>
+        <v>420343</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3364644948281407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3122357236834525</v>
+        <v>0.3092157224975388</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3658900405658271</v>
+        <v>0.3672821587517158</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>239</v>
@@ -8558,19 +8558,19 @@
         <v>253607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>226657</v>
+        <v>227032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>279674</v>
+        <v>282430</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3083781585070067</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2756071056567866</v>
+        <v>0.2760642061068864</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3400744053184335</v>
+        <v>0.3434256208655075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>611</v>
@@ -8579,19 +8579,19 @@
         <v>638680</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>594622</v>
+        <v>595279</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>680860</v>
+        <v>679419</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3247209304984972</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3023205390922933</v>
+        <v>0.3026546525099582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3461661800783297</v>
+        <v>0.3454337425098075</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>401140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>370594</v>
+        <v>369236</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>433532</v>
+        <v>435628</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3505034012542377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3238131818036957</v>
+        <v>0.3226270546895551</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3788062322363358</v>
+        <v>0.3806381562023017</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>304</v>
@@ -8629,19 +8629,19 @@
         <v>313230</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>285922</v>
+        <v>286470</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>341799</v>
+        <v>341361</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3808776322377853</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3476714979001644</v>
+        <v>0.3483389137053629</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.415616724896489</v>
+        <v>0.4150843571103444</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>690</v>
@@ -8650,19 +8650,19 @@
         <v>714370</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>673217</v>
+        <v>672403</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>756228</v>
+        <v>760000</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3632035886848902</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3422803218291267</v>
+        <v>0.3418664661082497</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3844852754729715</v>
+        <v>0.3864029933879264</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>221327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195567</v>
+        <v>195451</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>248902</v>
+        <v>250476</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1933889663052698</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1708803166529949</v>
+        <v>0.1707787993600095</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2174824839517087</v>
+        <v>0.2188576750639563</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -8700,19 +8700,19 @@
         <v>178324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>155301</v>
+        <v>155274</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>203370</v>
+        <v>202673</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2168360188840392</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1888413683605792</v>
+        <v>0.1888082558703309</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2472908765374745</v>
+        <v>0.2464436670222137</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>387</v>
@@ -8721,19 +8721,19 @@
         <v>399651</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>367534</v>
+        <v>362533</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>439025</v>
+        <v>433571</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2031927359087876</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1868633781815872</v>
+        <v>0.1843207580303916</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2232114961885217</v>
+        <v>0.2204385249210918</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>28017</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19224</v>
+        <v>18350</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40583</v>
+        <v>39674</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02448003128830288</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01679744937777057</v>
+        <v>0.01603373784994657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03546026907905198</v>
+        <v>0.0346663161191751</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -8771,19 +8771,19 @@
         <v>18787</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11595</v>
+        <v>11819</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28574</v>
+        <v>28942</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02284443071958459</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01409858361433223</v>
+        <v>0.01437145829166224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03474498287361122</v>
+        <v>0.03519287336225008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -8792,19 +8792,19 @@
         <v>46804</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33865</v>
+        <v>35355</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60214</v>
+        <v>62268</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02379614784132259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01721783689070981</v>
+        <v>0.01797560893330543</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03061410115688319</v>
+        <v>0.03165886193739337</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>108911</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90557</v>
+        <v>91709</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>128809</v>
+        <v>130334</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09516310632404887</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07912557381928244</v>
+        <v>0.08013285225698905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1125495623225885</v>
+        <v>0.1138818119234763</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -8842,19 +8842,19 @@
         <v>58442</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44465</v>
+        <v>44773</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>74328</v>
+        <v>75177</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07106375965158421</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05406832851463109</v>
+        <v>0.05444262501910287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09038053300357986</v>
+        <v>0.09141245528593699</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>159</v>
@@ -8863,19 +8863,19 @@
         <v>167353</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>143821</v>
+        <v>141451</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>195319</v>
+        <v>192263</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08508659706650241</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07312202738036458</v>
+        <v>0.07191727320953689</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09930486811474683</v>
+        <v>0.09775113645879797</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>186714</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>163698</v>
+        <v>165172</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>209018</v>
+        <v>210847</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3008097593664982</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.263729258909139</v>
+        <v>0.2661039155098238</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3367425841729378</v>
+        <v>0.3396886105680043</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>257</v>
@@ -8988,19 +8988,19 @@
         <v>271140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>245396</v>
+        <v>246060</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>298525</v>
+        <v>299955</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3672767630168241</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3324053146253914</v>
+        <v>0.3333043796564134</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4043718527462727</v>
+        <v>0.4063089370726236</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>434</v>
@@ -9009,19 +9009,19 @@
         <v>457854</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>421774</v>
+        <v>423071</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>495592</v>
+        <v>493744</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3369176918750243</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3103677520651411</v>
+        <v>0.3113223243186464</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3646873769527711</v>
+        <v>0.363327686740265</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>215097</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>188217</v>
+        <v>191782</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>239729</v>
+        <v>238396</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.346535494295148</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3032298563869576</v>
+        <v>0.3089735910580995</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3862192297083129</v>
+        <v>0.3840724009514584</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>242</v>
@@ -9059,19 +9059,19 @@
         <v>256442</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>229446</v>
+        <v>231055</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>281653</v>
+        <v>282288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3473676809508382</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3107995072444149</v>
+        <v>0.3129792717179873</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3815172840579644</v>
+        <v>0.3823771022564092</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>452</v>
@@ -9080,19 +9080,19 @@
         <v>471539</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>437532</v>
+        <v>431373</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>511418</v>
+        <v>504153</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3469875763501213</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3219635558722039</v>
+        <v>0.3174311532469625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3763330530982492</v>
+        <v>0.3709868926723365</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>117041</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99344</v>
+        <v>99089</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>140146</v>
+        <v>138543</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1885612387947612</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1600505624045573</v>
+        <v>0.1596389622931006</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2257846989528331</v>
+        <v>0.2232015680738968</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>128</v>
@@ -9130,19 +9130,19 @@
         <v>132644</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>112946</v>
+        <v>113025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>157203</v>
+        <v>154434</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1796747350318603</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1529933258154234</v>
+        <v>0.153099785002282</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2129420471534531</v>
+        <v>0.2091909341880855</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>241</v>
@@ -9151,19 +9151,19 @@
         <v>249685</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>221953</v>
+        <v>219859</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>277990</v>
+        <v>279798</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1837336813529415</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1633270529073677</v>
+        <v>0.1617856738193718</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2045625176670969</v>
+        <v>0.2058930693487172</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>20370</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12420</v>
+        <v>13160</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31199</v>
+        <v>31176</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03281794612345254</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02000878798575455</v>
+        <v>0.02120152161969665</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05026387768477355</v>
+        <v>0.05022672414774798</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -9201,19 +9201,19 @@
         <v>8849</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4616</v>
+        <v>4171</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16434</v>
+        <v>16666</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01198625949313628</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006252499048528583</v>
+        <v>0.005649596293053977</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02226142003804946</v>
+        <v>0.02257525929296741</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -9222,19 +9222,19 @@
         <v>29219</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19275</v>
+        <v>20595</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40287</v>
+        <v>41708</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02150121611342543</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01418400629874607</v>
+        <v>0.01515496864085419</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02964581140532286</v>
+        <v>0.03069115477159226</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>81484</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65873</v>
+        <v>65839</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>99747</v>
+        <v>99771</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.13127556142014</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.106126504160362</v>
+        <v>0.1060708993513244</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1606994073287805</v>
+        <v>0.1607374297695784</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -9272,19 +9272,19 @@
         <v>69169</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53711</v>
+        <v>54270</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>87024</v>
+        <v>86682</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09369456150734114</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07275455924983835</v>
+        <v>0.07351214912090069</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1178799561436718</v>
+        <v>0.1174168797142111</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>140</v>
@@ -9293,19 +9293,19 @@
         <v>150653</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>125687</v>
+        <v>128729</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>173099</v>
+        <v>175127</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1108598343084875</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09248830803538466</v>
+        <v>0.09472682216960658</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.127376939358255</v>
+        <v>0.1288693822421168</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>85184</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>69258</v>
+        <v>68962</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101655</v>
+        <v>101727</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2989134754840864</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2430295525219113</v>
+        <v>0.241988755257858</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3567093680932073</v>
+        <v>0.3569638620535444</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>332</v>
@@ -9418,19 +9418,19 @@
         <v>375218</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>342890</v>
+        <v>343254</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>405913</v>
+        <v>408672</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3478952948393602</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3179213089389327</v>
+        <v>0.318258864319173</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3763554829125702</v>
+        <v>0.3789140037757308</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>413</v>
@@ -9439,19 +9439,19 @@
         <v>460402</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>423915</v>
+        <v>429241</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>495336</v>
+        <v>496591</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3376579400981122</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.310898958170866</v>
+        <v>0.3148048022642228</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3632786695870283</v>
+        <v>0.3641992613327874</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>99579</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>84558</v>
+        <v>83595</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>115943</v>
+        <v>115323</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.349424102036076</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2967149526893472</v>
+        <v>0.2933380807020233</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4068479519057973</v>
+        <v>0.4046702662555239</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>350</v>
@@ -9489,19 +9489,19 @@
         <v>374070</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>343052</v>
+        <v>342126</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>406207</v>
+        <v>404874</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3468311686960272</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3180716266450899</v>
+        <v>0.3172133530419803</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3766278972672443</v>
+        <v>0.3753918042776641</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>444</v>
@@ -9510,19 +9510,19 @@
         <v>473648</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>443596</v>
+        <v>439803</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>512325</v>
+        <v>510874</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3473730999425976</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.325332708503162</v>
+        <v>0.3225510024823263</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3757383478629597</v>
+        <v>0.3746744730576375</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>69393</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54837</v>
+        <v>55898</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83805</v>
+        <v>84750</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2435014531080465</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1924242440756364</v>
+        <v>0.1961487994030515</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2940748781142899</v>
+        <v>0.2973891239910789</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>174</v>
@@ -9560,19 +9560,19 @@
         <v>179907</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>155916</v>
+        <v>156895</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>204876</v>
+        <v>207489</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1668066912407902</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1445627163326315</v>
+        <v>0.1454707646679604</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1899571291100023</v>
+        <v>0.1923805794003018</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>240</v>
@@ -9581,19 +9581,19 @@
         <v>249300</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>220403</v>
+        <v>223737</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>277914</v>
+        <v>281723</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1828361383778146</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1616432508774351</v>
+        <v>0.1640883127129164</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2038220666529589</v>
+        <v>0.2066149791394632</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>11490</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6155</v>
+        <v>6030</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20267</v>
+        <v>19513</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04031891732185718</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02159747720521857</v>
+        <v>0.02116099990541731</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0711172914233268</v>
+        <v>0.06847227538635457</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -9631,19 +9631,19 @@
         <v>16898</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10150</v>
+        <v>9801</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27413</v>
+        <v>26460</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01566784064053914</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009410471267429865</v>
+        <v>0.009087737020825533</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02541694840923345</v>
+        <v>0.02453368425944667</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>28</v>
@@ -9652,19 +9652,19 @@
         <v>28388</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>19626</v>
+        <v>18936</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>40194</v>
+        <v>39778</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02081999342012321</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01439349995539168</v>
+        <v>0.01388798929584263</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02947853575640442</v>
+        <v>0.0291734223738505</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>19334</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12135</v>
+        <v>11785</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>29441</v>
+        <v>28825</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06784205204993396</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04258216445832429</v>
+        <v>0.04135338477933538</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1033078244105657</v>
+        <v>0.1011480117388125</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>116</v>
@@ -9702,19 +9702,19 @@
         <v>132443</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>111422</v>
+        <v>109457</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>156846</v>
+        <v>153904</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1227990045832833</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1033084095554898</v>
+        <v>0.1014866476714486</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1454248214343497</v>
+        <v>0.1426967162993973</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>134</v>
@@ -9723,19 +9723,19 @@
         <v>151777</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>126881</v>
+        <v>124883</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>176482</v>
+        <v>174736</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1113128281613524</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09305418798969585</v>
+        <v>0.09158879511679983</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.129431839063463</v>
+        <v>0.1281513763780756</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>1122346</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1066584</v>
+        <v>1071109</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1176759</v>
+        <v>1182673</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3328901849660024</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3163511209410904</v>
+        <v>0.3176933206283268</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3490292569406717</v>
+        <v>0.3507832830251764</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1117</v>
@@ -9848,19 +9848,19 @@
         <v>1212738</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1159504</v>
+        <v>1155391</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1270957</v>
+        <v>1269737</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3442851551875853</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3291724421170212</v>
+        <v>0.3280047694168028</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3608129506485236</v>
+        <v>0.3604666018773047</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2184</v>
@@ -9869,19 +9869,19 @@
         <v>2335084</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2252364</v>
+        <v>2258508</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2416607</v>
+        <v>2422969</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3387124318121362</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3267136320318704</v>
+        <v>0.3276047359121023</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3505376736667365</v>
+        <v>0.3514603722969802</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>1216469</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1162943</v>
+        <v>1160082</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1276181</v>
+        <v>1271441</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3608072926299548</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3449313238036933</v>
+        <v>0.344082769488001</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.378517959190255</v>
+        <v>0.3771121425065843</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1224</v>
@@ -9919,19 +9919,19 @@
         <v>1285341</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1227969</v>
+        <v>1227947</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1344814</v>
+        <v>1343744</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3648964361906805</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3486088813568337</v>
+        <v>0.3486027161423865</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.38178018540394</v>
+        <v>0.3814763450277341</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2389</v>
@@ -9940,19 +9940,19 @@
         <v>2501810</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2421645</v>
+        <v>2421378</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2587568</v>
+        <v>2580845</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3628966357995165</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.351268374022263</v>
+        <v>0.3512297028013884</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3753361089858054</v>
+        <v>0.3743609945037966</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>640747</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>591707</v>
+        <v>601076</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>687239</v>
+        <v>690612</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1900468851380492</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1755015134963349</v>
+        <v>0.1782804856250522</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2038365648157796</v>
+        <v>0.2048369345710065</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>638</v>
@@ -9990,19 +9990,19 @@
         <v>651851</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>607240</v>
+        <v>603935</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>697629</v>
+        <v>701145</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1850543707886056</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1723897229798542</v>
+        <v>0.1714516504514434</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1980503961033519</v>
+        <v>0.1990487097531881</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1244</v>
@@ -10011,19 +10011,19 @@
         <v>1292598</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1230032</v>
+        <v>1230635</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1362968</v>
+        <v>1360306</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.187495965709557</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1784205614106216</v>
+        <v>0.1785080242339902</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1977034686117941</v>
+        <v>0.1973172807076452</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>91254</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>73366</v>
+        <v>72645</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>110860</v>
+        <v>110289</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02706614377310618</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02176053980593847</v>
+        <v>0.02154673695832479</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0328813927494761</v>
+        <v>0.03271185377155006</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>68</v>
@@ -10061,19 +10061,19 @@
         <v>69694</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>56074</v>
+        <v>54517</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>87918</v>
+        <v>88070</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0197854431426136</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01591883593803147</v>
+        <v>0.0154768669409491</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02495897753004243</v>
+        <v>0.02500235070323796</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>156</v>
@@ -10082,19 +10082,19 @@
         <v>160948</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>137833</v>
+        <v>137106</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>184831</v>
+        <v>188116</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0233460782126679</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01999317313669039</v>
+        <v>0.01988778088658994</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0268103984340214</v>
+        <v>0.02728693766869253</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>300704</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>268566</v>
+        <v>267516</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>335712</v>
+        <v>335911</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08918949349288754</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07965730520592169</v>
+        <v>0.07934587578425467</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09957294315624372</v>
+        <v>0.09963184104187016</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>271</v>
@@ -10132,19 +10132,19 @@
         <v>302858</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>266313</v>
+        <v>269105</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>339543</v>
+        <v>338614</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08597859469051494</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07560381093623314</v>
+        <v>0.07639636339880973</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09639309224596736</v>
+        <v>0.09612932970445749</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>555</v>
@@ -10153,19 +10153,19 @@
         <v>603562</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>560030</v>
+        <v>556402</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>654478</v>
+        <v>648684</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.08754888846612233</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.08123439979712675</v>
+        <v>0.08070816603171654</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09493438134104047</v>
+        <v>0.0940939530731387</v>
       </c>
     </row>
     <row r="45">
